--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:35:34+00:00</t>
+    <t>2023-02-18T09:40:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:40:56+00:00</t>
+    <t>2023-02-18T09:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:58:57+00:00</t>
+    <t>2023-02-18T10:08:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:08:04+00:00</t>
+    <t>2023-02-18T10:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:08:52+00:00</t>
+    <t>2023-02-18T10:54:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:54:22+00:00</t>
+    <t>2023-02-18T10:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:54:26+00:00</t>
+    <t>2023-02-18T11:03:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:03:25+00:00</t>
+    <t>2023-02-18T11:04:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:04:01+00:00</t>
+    <t>2023-02-18T11:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:11:59+00:00</t>
+    <t>2023-02-18T11:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:31+00:00</t>
+    <t>2023-02-18T14:18:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:18:06+00:00</t>
+    <t>2023-02-18T14:18:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:18:46+00:00</t>
+    <t>2023-02-18T14:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:33:26+00:00</t>
+    <t>2023-02-20T05:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T05:36:23+00:00</t>
+    <t>2023-02-20T05:45:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T05:45:30+00:00</t>
+    <t>2023-02-20T07:16:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:16:18+00:00</t>
+    <t>2023-02-20T07:16:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:16:27+00:00</t>
+    <t>2023-02-20T07:47:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:47:53+00:00</t>
+    <t>2023-02-20T07:54:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:54:18+00:00</t>
+    <t>2023-02-21T11:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:53:49+00:00</t>
+    <t>2023-02-21T14:02:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ARV treatment plan outcomes</t>
+    <t>A list of possible ARV treatment outcomes.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:02:05+00:00</t>
+    <t>2023-02-21T14:02:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:02:34+00:00</t>
+    <t>2023-02-21T14:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:39:39+00:00</t>
+    <t>2023-02-22T12:13:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:13:37+00:00</t>
+    <t>2023-02-22T12:14:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:14:29+00:00</t>
+    <t>2023-02-22T12:55:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:55:56+00:00</t>
+    <t>2023-02-22T12:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:56:47+00:00</t>
+    <t>2023-02-22T14:46:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T14:46:19+00:00</t>
+    <t>2023-02-22T14:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T14:47:44+00:00</t>
+    <t>2023-02-22T15:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:00:42+00:00</t>
+    <t>2023-02-22T15:01:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:01:39+00:00</t>
+    <t>2023-02-22T15:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:05:09+00:00</t>
+    <t>2023-02-22T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:06:05+00:00</t>
+    <t>2023-02-22T15:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:17:45+00:00</t>
+    <t>2023-02-22T15:19:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:19:59+00:00</t>
+    <t>2023-02-22T15:29:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:29:38+00:00</t>
+    <t>2023-02-22T15:31:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:31:03+00:00</t>
+    <t>2023-02-23T08:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:16:34+00:00</t>
+    <t>2023-02-23T08:20:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:20:52+00:00</t>
+    <t>2023-02-23T08:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:46:38+00:00</t>
+    <t>2023-02-24T12:58:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T12:58:33+00:00</t>
+    <t>2023-02-24T14:12:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:12:54+00:00</t>
+    <t>2023-02-24T14:24:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:24:20+00:00</t>
+    <t>2023-02-25T14:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-25T14:44:55+00:00</t>
+    <t>2023-02-27T07:20:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:20:27+00:00</t>
+    <t>2023-02-27T07:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:24:09+00:00</t>
+    <t>2023-02-27T07:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:38:12+00:00</t>
+    <t>2023-02-27T08:29:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:29:07+00:00</t>
+    <t>2023-02-28T11:17:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:17:07+00:00</t>
+    <t>2023-02-28T11:22:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:22:14+00:00</t>
+    <t>2023-03-01T08:28:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:28:52+00:00</t>
+    <t>2023-03-01T12:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:48:35+00:00</t>
+    <t>2023-03-01T12:49:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:49:43+00:00</t>
+    <t>2023-03-01T13:24:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:24:40+00:00</t>
+    <t>2023-03-02T06:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:03:23+00:00</t>
+    <t>2023-03-02T06:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
+++ b/branches/Richard/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:46:56+00:00</t>
+    <t>2023-03-02T06:53:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
